--- a/Team-Data/2012-13/3-12-2012-13.xlsx
+++ b/Team-Data/2012-13/3-12-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" t="n">
         <v>34</v>
       </c>
       <c r="F2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" t="n">
-        <v>0.54</v>
+        <v>0.548</v>
       </c>
       <c r="H2" t="n">
         <v>48.6</v>
@@ -684,25 +751,25 @@
         <v>37.4</v>
       </c>
       <c r="J2" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="K2" t="n">
         <v>0.462</v>
       </c>
       <c r="L2" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="M2" t="n">
         <v>23.6</v>
       </c>
       <c r="N2" t="n">
-        <v>0.377</v>
+        <v>0.38</v>
       </c>
       <c r="O2" t="n">
         <v>13.5</v>
       </c>
       <c r="P2" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="Q2" t="n">
         <v>0.705</v>
@@ -711,46 +778,46 @@
         <v>9.4</v>
       </c>
       <c r="S2" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="T2" t="n">
         <v>40.7</v>
       </c>
       <c r="U2" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="V2" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W2" t="n">
         <v>7.9</v>
       </c>
       <c r="X2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.09999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
@@ -798,22 +865,22 @@
         <v>3</v>
       </c>
       <c r="AV2" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AW2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
         <v>7</v>
       </c>
       <c r="AZ2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB2" t="n">
         <v>17</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-12-2012-13</t>
+          <t>2013-03-12</t>
         </is>
       </c>
     </row>
@@ -848,37 +915,37 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" t="n">
         <v>34</v>
       </c>
       <c r="F3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" t="n">
-        <v>0.54</v>
+        <v>0.548</v>
       </c>
       <c r="H3" t="n">
         <v>49.3</v>
       </c>
       <c r="I3" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J3" t="n">
-        <v>80.3</v>
+        <v>80.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L3" t="n">
         <v>5.9</v>
       </c>
       <c r="M3" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="N3" t="n">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
       <c r="O3" t="n">
         <v>16.2</v>
@@ -887,25 +954,25 @@
         <v>20.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.778</v>
+        <v>0.781</v>
       </c>
       <c r="R3" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="S3" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T3" t="n">
-        <v>40</v>
+        <v>40.2</v>
       </c>
       <c r="U3" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="V3" t="n">
         <v>14.5</v>
       </c>
       <c r="W3" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
         <v>4.3</v>
@@ -920,19 +987,19 @@
         <v>19.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.7</v>
+        <v>96</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>12</v>
       </c>
       <c r="AF3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
         <v>12</v>
@@ -944,7 +1011,7 @@
         <v>17</v>
       </c>
       <c r="AJ3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK3" t="n">
         <v>9</v>
@@ -959,31 +1026,31 @@
         <v>22</v>
       </c>
       <c r="AO3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR3" t="n">
         <v>29</v>
       </c>
       <c r="AS3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AT3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
         <v>24</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-12-2012-13</t>
+          <t>2013-03-12</t>
         </is>
       </c>
     </row>
@@ -1030,61 +1097,61 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" t="n">
         <v>27</v>
       </c>
       <c r="G4" t="n">
-        <v>0.585</v>
+        <v>0.578</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="J4" t="n">
         <v>79.2</v>
       </c>
       <c r="K4" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L4" t="n">
         <v>7.8</v>
       </c>
       <c r="M4" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="N4" t="n">
-        <v>0.359</v>
+        <v>0.36</v>
       </c>
       <c r="O4" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="P4" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.734</v>
+        <v>0.733</v>
       </c>
       <c r="R4" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S4" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="T4" t="n">
         <v>42.6</v>
       </c>
       <c r="U4" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V4" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W4" t="n">
         <v>7.1</v>
@@ -1093,25 +1160,25 @@
         <v>4.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z4" t="n">
         <v>18.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.2</v>
+        <v>95</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF4" t="n">
         <v>9</v>
@@ -1120,7 +1187,7 @@
         <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
         <v>28</v>
@@ -1129,7 +1196,7 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
         <v>9</v>
@@ -1138,10 +1205,10 @@
         <v>7</v>
       </c>
       <c r="AN4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO4" t="n">
         <v>13</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>12</v>
       </c>
       <c r="AP4" t="n">
         <v>8</v>
@@ -1153,7 +1220,7 @@
         <v>9</v>
       </c>
       <c r="AS4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT4" t="n">
         <v>14</v>
@@ -1162,7 +1229,7 @@
         <v>28</v>
       </c>
       <c r="AV4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW4" t="n">
         <v>23</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-12-2012-13</t>
+          <t>2013-03-12</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
         <v>50</v>
       </c>
       <c r="G5" t="n">
-        <v>0.219</v>
+        <v>0.206</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
@@ -1230,7 +1297,7 @@
         <v>34.2</v>
       </c>
       <c r="J5" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K5" t="n">
         <v>0.418</v>
@@ -1248,22 +1315,22 @@
         <v>18.9</v>
       </c>
       <c r="P5" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.748</v>
+        <v>0.747</v>
       </c>
       <c r="R5" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S5" t="n">
         <v>29</v>
       </c>
       <c r="T5" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U5" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="V5" t="n">
         <v>13.9</v>
@@ -1272,25 +1339,25 @@
         <v>7.1</v>
       </c>
       <c r="X5" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA5" t="n">
         <v>21.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>93</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-10</v>
+        <v>-10.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1326,13 +1393,13 @@
         <v>4</v>
       </c>
       <c r="AP5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ5" t="n">
         <v>18</v>
       </c>
       <c r="AR5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS5" t="n">
         <v>28</v>
@@ -1356,7 +1423,7 @@
         <v>30</v>
       </c>
       <c r="AZ5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA5" t="n">
         <v>5</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-12-2012-13</t>
+          <t>2013-03-12</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>0.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
@@ -1487,7 +1554,7 @@
         <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ6" t="n">
         <v>19</v>
@@ -1523,7 +1590,7 @@
         <v>6</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
         <v>13</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-12-2012-13</t>
+          <t>2013-03-12</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" t="n">
         <v>42</v>
       </c>
       <c r="G7" t="n">
-        <v>0.344</v>
+        <v>0.333</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
@@ -1603,10 +1670,10 @@
         <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O7" t="n">
         <v>17.5</v>
@@ -1618,19 +1685,19 @@
         <v>0.761</v>
       </c>
       <c r="R7" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S7" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="T7" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U7" t="n">
         <v>20.6</v>
       </c>
       <c r="V7" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W7" t="n">
         <v>8</v>
@@ -1639,31 +1706,31 @@
         <v>3.9</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="Z7" t="n">
         <v>21.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB7" t="n">
         <v>97.59999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>-3.4</v>
+        <v>-3.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AH7" t="n">
         <v>27</v>
@@ -1720,16 +1787,16 @@
         <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB7" t="n">
         <v>16</v>
       </c>
       <c r="BC7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-12-2012-13</t>
+          <t>2013-03-12</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" t="n">
         <v>33</v>
       </c>
       <c r="G8" t="n">
-        <v>0.476</v>
+        <v>0.468</v>
       </c>
       <c r="H8" t="n">
         <v>48.8</v>
@@ -1776,37 +1843,37 @@
         <v>38.5</v>
       </c>
       <c r="J8" t="n">
-        <v>84.2</v>
+        <v>84.3</v>
       </c>
       <c r="K8" t="n">
         <v>0.457</v>
       </c>
       <c r="L8" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M8" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>0.371</v>
+        <v>0.37</v>
       </c>
       <c r="O8" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P8" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="Q8" t="n">
         <v>0.792</v>
       </c>
       <c r="R8" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="S8" t="n">
         <v>32.9</v>
       </c>
       <c r="T8" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U8" t="n">
         <v>23</v>
@@ -1830,13 +1897,13 @@
         <v>19.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>101.4</v>
+        <v>101.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
         <v>18</v>
@@ -1851,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="AI8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ8" t="n">
         <v>3</v>
@@ -1860,7 +1927,7 @@
         <v>10</v>
       </c>
       <c r="AL8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM8" t="n">
         <v>11</v>
@@ -1869,7 +1936,7 @@
         <v>8</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP8" t="n">
         <v>21</v>
@@ -1881,19 +1948,19 @@
         <v>26</v>
       </c>
       <c r="AS8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT8" t="n">
         <v>15</v>
       </c>
       <c r="AU8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
         <v>7</v>
       </c>
       <c r="AW8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-12-2012-13</t>
+          <t>2013-03-12</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2097,7 @@
         <v>6</v>
       </c>
       <c r="AH9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -2048,7 +2115,7 @@
         <v>19</v>
       </c>
       <c r="AN9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO9" t="n">
         <v>7</v>
@@ -2063,7 +2130,7 @@
         <v>2</v>
       </c>
       <c r="AS9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT9" t="n">
         <v>3</v>
@@ -2072,7 +2139,7 @@
         <v>2</v>
       </c>
       <c r="AV9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW9" t="n">
         <v>2</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-12-2012-13</t>
+          <t>2013-03-12</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2273,7 @@
         <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG10" t="n">
         <v>23</v>
@@ -2221,7 +2288,7 @@
         <v>20</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
         <v>22</v>
@@ -2248,19 +2315,19 @@
         <v>16</v>
       </c>
       <c r="AT10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU10" t="n">
         <v>24</v>
       </c>
       <c r="AV10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW10" t="n">
         <v>27</v>
       </c>
       <c r="AX10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY10" t="n">
         <v>21</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-12-2012-13</t>
+          <t>2013-03-12</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2455,7 @@
         <v>10</v>
       </c>
       <c r="AF11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG11" t="n">
         <v>11</v>
@@ -2400,10 +2467,10 @@
         <v>10</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-12-2012-13</t>
+          <t>2013-03-12</t>
         </is>
       </c>
     </row>
@@ -2564,13 +2631,13 @@
         <v>3.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
         <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG12" t="n">
         <v>14</v>
@@ -2579,7 +2646,7 @@
         <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ12" t="n">
         <v>10</v>
@@ -2597,10 +2664,10 @@
         <v>6</v>
       </c>
       <c r="AO12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ12" t="n">
         <v>17</v>
@@ -2612,10 +2679,10 @@
         <v>8</v>
       </c>
       <c r="AT12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
@@ -2627,13 +2694,13 @@
         <v>28</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
         <v>17</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-12-2012-13</t>
+          <t>2013-03-12</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>4.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2764,7 +2831,7 @@
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK13" t="n">
         <v>25</v>
@@ -2791,7 +2858,7 @@
         <v>4</v>
       </c>
       <c r="AS13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -2800,7 +2867,7 @@
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-12-2012-13</t>
+          <t>2013-03-12</t>
         </is>
       </c>
     </row>
@@ -2937,7 +3004,7 @@
         <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH14" t="n">
         <v>30</v>
@@ -2958,7 +3025,7 @@
         <v>10</v>
       </c>
       <c r="AN14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO14" t="n">
         <v>19</v>
@@ -2970,10 +3037,10 @@
         <v>26</v>
       </c>
       <c r="AR14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT14" t="n">
         <v>18</v>
@@ -2982,7 +3049,7 @@
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-12-2012-13</t>
+          <t>2013-03-12</t>
         </is>
       </c>
     </row>
@@ -3032,25 +3099,25 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" t="n">
         <v>31</v>
       </c>
       <c r="G15" t="n">
-        <v>0.523</v>
+        <v>0.516</v>
       </c>
       <c r="H15" t="n">
         <v>48.2</v>
       </c>
       <c r="I15" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J15" t="n">
-        <v>81.09999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="K15" t="n">
         <v>0.46</v>
@@ -3065,28 +3132,28 @@
         <v>0.358</v>
       </c>
       <c r="O15" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="P15" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="R15" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S15" t="n">
         <v>33</v>
       </c>
       <c r="T15" t="n">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
       <c r="U15" t="n">
         <v>22</v>
       </c>
       <c r="V15" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W15" t="n">
         <v>7.1</v>
@@ -3095,31 +3162,31 @@
         <v>5.2</v>
       </c>
       <c r="Y15" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="AB15" t="n">
         <v>102.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
         <v>16</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH15" t="n">
         <v>28</v>
@@ -3128,7 +3195,7 @@
         <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK15" t="n">
         <v>8</v>
@@ -3143,7 +3210,7 @@
         <v>15</v>
       </c>
       <c r="AO15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP15" t="n">
         <v>1</v>
@@ -3155,7 +3222,7 @@
         <v>12</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT15" t="n">
         <v>4</v>
@@ -3164,7 +3231,7 @@
         <v>16</v>
       </c>
       <c r="AV15" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AW15" t="n">
         <v>22</v>
@@ -3176,7 +3243,7 @@
         <v>16</v>
       </c>
       <c r="AZ15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-12-2012-13</t>
+          <t>2013-03-12</t>
         </is>
       </c>
     </row>
@@ -3214,64 +3281,64 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" t="n">
         <v>19</v>
       </c>
       <c r="G16" t="n">
-        <v>0.694</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J16" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="K16" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L16" t="n">
         <v>4.7</v>
       </c>
       <c r="M16" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O16" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="P16" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.775</v>
+        <v>0.778</v>
       </c>
       <c r="R16" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="S16" t="n">
         <v>29.5</v>
       </c>
       <c r="T16" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U16" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="V16" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W16" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X16" t="n">
         <v>5.3</v>
@@ -3280,13 +3347,13 @@
         <v>5.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="AC16" t="n">
         <v>4.3</v>
@@ -3295,13 +3362,13 @@
         <v>25</v>
       </c>
       <c r="AE16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF16" t="n">
         <v>4</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH16" t="n">
         <v>20</v>
@@ -3313,7 +3380,7 @@
         <v>12</v>
       </c>
       <c r="AK16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3322,16 +3389,16 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO16" t="n">
         <v>22</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR16" t="n">
         <v>1</v>
@@ -3340,10 +3407,10 @@
         <v>26</v>
       </c>
       <c r="AT16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AU16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV16" t="n">
         <v>10</v>
@@ -3352,7 +3419,7 @@
         <v>4</v>
       </c>
       <c r="AX16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY16" t="n">
         <v>19</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-12-2012-13</t>
+          <t>2013-03-12</t>
         </is>
       </c>
     </row>
@@ -3396,64 +3463,64 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" t="n">
         <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.774</v>
+        <v>0.77</v>
       </c>
       <c r="H17" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I17" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="J17" t="n">
-        <v>78.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.495</v>
+        <v>0.496</v>
       </c>
       <c r="L17" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M17" t="n">
         <v>21</v>
       </c>
       <c r="N17" t="n">
-        <v>0.387</v>
+        <v>0.388</v>
       </c>
       <c r="O17" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P17" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.762</v>
+        <v>0.763</v>
       </c>
       <c r="R17" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="S17" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T17" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="U17" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="V17" t="n">
         <v>13.5</v>
       </c>
       <c r="W17" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X17" t="n">
         <v>5.1</v>
@@ -3462,16 +3529,16 @@
         <v>3.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AD17" t="n">
         <v>25</v>
@@ -3519,7 +3586,7 @@
         <v>28</v>
       </c>
       <c r="AS17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3540,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-12-2012-13</t>
+          <t>2013-03-12</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" t="n">
         <v>32</v>
       </c>
       <c r="F18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" t="n">
-        <v>0.516</v>
+        <v>0.525</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
@@ -3596,49 +3663,49 @@
         <v>38.1</v>
       </c>
       <c r="J18" t="n">
-        <v>86.90000000000001</v>
+        <v>86.8</v>
       </c>
       <c r="K18" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L18" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M18" t="n">
         <v>18.9</v>
       </c>
       <c r="N18" t="n">
-        <v>0.357</v>
+        <v>0.356</v>
       </c>
       <c r="O18" t="n">
         <v>16</v>
       </c>
       <c r="P18" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.737</v>
+        <v>0.736</v>
       </c>
       <c r="R18" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S18" t="n">
         <v>31</v>
       </c>
       <c r="T18" t="n">
-        <v>43.5</v>
+        <v>43.6</v>
       </c>
       <c r="U18" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V18" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W18" t="n">
         <v>8.5</v>
       </c>
       <c r="X18" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="Y18" t="n">
         <v>4.4</v>
@@ -3650,10 +3717,10 @@
         <v>19.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="AD18" t="n">
         <v>25</v>
@@ -3662,10 +3729,10 @@
         <v>17</v>
       </c>
       <c r="AF18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
         <v>14</v>
@@ -3698,7 +3765,7 @@
         <v>22</v>
       </c>
       <c r="AR18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS18" t="n">
         <v>13</v>
@@ -3707,13 +3774,13 @@
         <v>5</v>
       </c>
       <c r="AU18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV18" t="n">
         <v>9</v>
       </c>
       <c r="AW18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX18" t="n">
         <v>2</v>
@@ -3722,7 +3789,7 @@
         <v>8</v>
       </c>
       <c r="AZ18" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-12-2012-13</t>
+          <t>2013-03-12</t>
         </is>
       </c>
     </row>
@@ -3760,88 +3827,88 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" t="n">
         <v>39</v>
       </c>
       <c r="G19" t="n">
-        <v>0.361</v>
+        <v>0.35</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="J19" t="n">
         <v>81.7</v>
       </c>
       <c r="K19" t="n">
-        <v>0.433</v>
+        <v>0.431</v>
       </c>
       <c r="L19" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="M19" t="n">
         <v>17.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.299</v>
+        <v>0.293</v>
       </c>
       <c r="O19" t="n">
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
       <c r="P19" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.728</v>
+        <v>0.732</v>
       </c>
       <c r="R19" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S19" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T19" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U19" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V19" t="n">
         <v>15.2</v>
       </c>
       <c r="W19" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X19" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y19" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>94.59999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-3</v>
+        <v>-3.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF19" t="n">
         <v>20</v>
@@ -3853,10 +3920,10 @@
         <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK19" t="n">
         <v>28</v>
@@ -3880,7 +3947,7 @@
         <v>24</v>
       </c>
       <c r="AR19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS19" t="n">
         <v>17</v>
@@ -3889,19 +3956,19 @@
         <v>9</v>
       </c>
       <c r="AU19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ19" t="n">
         <v>5</v>
@@ -3910,10 +3977,10 @@
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-12-2012-13</t>
+          <t>2013-03-12</t>
         </is>
       </c>
     </row>
@@ -3942,61 +4009,61 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" t="n">
         <v>22</v>
       </c>
       <c r="F20" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20" t="n">
-        <v>0.338</v>
+        <v>0.344</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J20" t="n">
-        <v>80.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L20" t="n">
         <v>6.8</v>
       </c>
       <c r="M20" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="O20" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="P20" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.773</v>
+        <v>0.772</v>
       </c>
       <c r="R20" t="n">
         <v>11.5</v>
       </c>
       <c r="S20" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T20" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U20" t="n">
         <v>21.4</v>
       </c>
       <c r="V20" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W20" t="n">
         <v>6.3</v>
@@ -4005,31 +4072,31 @@
         <v>5.6</v>
       </c>
       <c r="Y20" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA20" t="n">
         <v>18.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.6</v>
+        <v>-3.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
         <v>23</v>
       </c>
       <c r="AF20" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AH20" t="n">
         <v>22</v>
@@ -4041,7 +4108,7 @@
         <v>25</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
         <v>17</v>
@@ -4053,13 +4120,13 @@
         <v>7</v>
       </c>
       <c r="AO20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP20" t="n">
         <v>27</v>
       </c>
       <c r="AQ20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR20" t="n">
         <v>14</v>
@@ -4068,10 +4135,10 @@
         <v>25</v>
       </c>
       <c r="AT20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AU20" t="n">
         <v>22</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>23</v>
       </c>
       <c r="AV20" t="n">
         <v>8</v>
@@ -4092,10 +4159,10 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
+        <v>21</v>
+      </c>
+      <c r="BC20" t="n">
         <v>22</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>24</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-12-2012-13</t>
+          <t>2013-03-12</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>3.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE21" t="n">
         <v>8</v>
@@ -4250,7 +4317,7 @@
         <v>23</v>
       </c>
       <c r="AT21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU21" t="n">
         <v>29</v>
@@ -4259,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,7 +4335,7 @@
         <v>2</v>
       </c>
       <c r="AZ21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA21" t="n">
         <v>21</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-12-2012-13</t>
+          <t>2013-03-12</t>
         </is>
       </c>
     </row>
@@ -4384,10 +4451,10 @@
         <v>9.300000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF22" t="n">
         <v>3</v>
@@ -4396,7 +4463,7 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="n">
         <v>7</v>
@@ -4435,7 +4502,7 @@
         <v>8</v>
       </c>
       <c r="AU22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV22" t="n">
         <v>28</v>
@@ -4447,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ22" t="n">
         <v>18</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-12-2012-13</t>
+          <t>2013-03-12</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" t="n">
         <v>18</v>
       </c>
       <c r="F23" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G23" t="n">
-        <v>0.277</v>
+        <v>0.281</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4506,19 +4573,19 @@
         <v>37.7</v>
       </c>
       <c r="J23" t="n">
-        <v>83.40000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L23" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M23" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.334</v>
+        <v>0.335</v>
       </c>
       <c r="O23" t="n">
         <v>12.3</v>
@@ -4539,13 +4606,13 @@
         <v>42.3</v>
       </c>
       <c r="U23" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="V23" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W23" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X23" t="n">
         <v>4.2</v>
@@ -4554,7 +4621,7 @@
         <v>5</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="AA23" t="n">
         <v>16.5</v>
@@ -4563,10 +4630,10 @@
         <v>94.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6.3</v>
+        <v>-6.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4578,16 +4645,16 @@
         <v>29</v>
       </c>
       <c r="AH23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
         <v>9</v>
       </c>
       <c r="AJ23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
         <v>21</v>
@@ -4605,19 +4672,19 @@
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR23" t="n">
         <v>24</v>
       </c>
       <c r="AS23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT23" t="n">
         <v>16</v>
       </c>
       <c r="AU23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV23" t="n">
         <v>14</v>
@@ -4632,7 +4699,7 @@
         <v>14</v>
       </c>
       <c r="AZ23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-12-2012-13</t>
+          <t>2013-03-12</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE24" t="n">
         <v>21</v>
@@ -4796,7 +4863,7 @@
         <v>15</v>
       </c>
       <c r="AT24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU24" t="n">
         <v>12</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-12-2012-13</t>
+          <t>2013-03-12</t>
         </is>
       </c>
     </row>
@@ -4930,19 +4997,19 @@
         <v>-5.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
         <v>23</v>
       </c>
       <c r="AF25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG25" t="n">
         <v>24</v>
       </c>
       <c r="AH25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI25" t="n">
         <v>13</v>
@@ -4984,7 +5051,7 @@
         <v>15</v>
       </c>
       <c r="AV25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW25" t="n">
         <v>15</v>
@@ -4996,7 +5063,7 @@
         <v>17</v>
       </c>
       <c r="AZ25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA25" t="n">
         <v>27</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-12-2012-13</t>
+          <t>2013-03-12</t>
         </is>
       </c>
     </row>
@@ -5034,46 +5101,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" t="n">
         <v>29</v>
       </c>
       <c r="F26" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G26" t="n">
-        <v>0.46</v>
+        <v>0.468</v>
       </c>
       <c r="H26" t="n">
         <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J26" t="n">
         <v>82</v>
       </c>
       <c r="K26" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L26" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="N26" t="n">
         <v>0.347</v>
       </c>
       <c r="O26" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="P26" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.778</v>
+        <v>0.774</v>
       </c>
       <c r="R26" t="n">
         <v>11.1</v>
@@ -5085,7 +5152,7 @@
         <v>41.4</v>
       </c>
       <c r="U26" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V26" t="n">
         <v>14.8</v>
@@ -5100,10 +5167,10 @@
         <v>4.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AB26" t="n">
         <v>98</v>
@@ -5112,16 +5179,16 @@
         <v>-1.8</v>
       </c>
       <c r="AD26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE26" t="n">
         <v>18</v>
       </c>
-      <c r="AE26" t="n">
-        <v>19</v>
-      </c>
       <c r="AF26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH26" t="n">
         <v>6</v>
@@ -5151,7 +5218,7 @@
         <v>22</v>
       </c>
       <c r="AQ26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AR26" t="n">
         <v>18</v>
@@ -5160,7 +5227,7 @@
         <v>18</v>
       </c>
       <c r="AT26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU26" t="n">
         <v>21</v>
@@ -5172,10 +5239,10 @@
         <v>26</v>
       </c>
       <c r="AX26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ26" t="n">
         <v>7</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-12-2012-13</t>
+          <t>2013-03-12</t>
         </is>
       </c>
     </row>
@@ -5300,7 +5367,7 @@
         <v>23</v>
       </c>
       <c r="AF27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG27" t="n">
         <v>26</v>
@@ -5315,7 +5382,7 @@
         <v>7</v>
       </c>
       <c r="AK27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL27" t="n">
         <v>14</v>
@@ -5348,10 +5415,10 @@
         <v>25</v>
       </c>
       <c r="AV27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX27" t="n">
         <v>25</v>
@@ -5360,7 +5427,7 @@
         <v>27</v>
       </c>
       <c r="AZ27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA27" t="n">
         <v>14</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-12-2012-13</t>
+          <t>2013-03-12</t>
         </is>
       </c>
     </row>
@@ -5398,61 +5465,61 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" t="n">
         <v>49</v>
       </c>
       <c r="F28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G28" t="n">
-        <v>0.754</v>
+        <v>0.766</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
       </c>
       <c r="I28" t="n">
-        <v>39.6</v>
+        <v>39.8</v>
       </c>
       <c r="J28" t="n">
         <v>81.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.487</v>
+        <v>0.49</v>
       </c>
       <c r="L28" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O28" t="n">
         <v>16.9</v>
       </c>
       <c r="P28" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.789</v>
+        <v>0.788</v>
       </c>
       <c r="R28" t="n">
         <v>7.9</v>
       </c>
       <c r="S28" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="T28" t="n">
         <v>40.9</v>
       </c>
       <c r="U28" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="V28" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W28" t="n">
         <v>8.699999999999999</v>
@@ -5461,22 +5528,22 @@
         <v>5.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="AA28" t="n">
         <v>19</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.4</v>
+        <v>104.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,13 +5555,13 @@
         <v>2</v>
       </c>
       <c r="AH28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI28" t="n">
         <v>2</v>
       </c>
       <c r="AJ28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5509,7 +5576,7 @@
         <v>4</v>
       </c>
       <c r="AO28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP28" t="n">
         <v>19</v>
@@ -5530,7 +5597,7 @@
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW28" t="n">
         <v>5</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-12-2012-13</t>
+          <t>2013-03-12</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-1.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
@@ -5679,10 +5746,10 @@
         <v>11</v>
       </c>
       <c r="AK29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM29" t="n">
         <v>8</v>
@@ -5706,10 +5773,10 @@
         <v>27</v>
       </c>
       <c r="AT29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV29" t="n">
         <v>3</v>
@@ -5718,10 +5785,10 @@
         <v>18</v>
       </c>
       <c r="AX29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-12-2012-13</t>
+          <t>2013-03-12</t>
         </is>
       </c>
     </row>
@@ -5840,16 +5907,16 @@
         <v>-0.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF30" t="n">
         <v>16</v>
       </c>
       <c r="AG30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH30" t="n">
         <v>8</v>
@@ -5861,7 +5928,7 @@
         <v>13</v>
       </c>
       <c r="AK30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL30" t="n">
         <v>24</v>
@@ -5894,7 +5961,7 @@
         <v>11</v>
       </c>
       <c r="AV30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW30" t="n">
         <v>13</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-12-2012-13</t>
+          <t>2013-03-12</t>
         </is>
       </c>
     </row>
@@ -5944,46 +6011,46 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E31" t="n">
         <v>20</v>
       </c>
       <c r="F31" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G31" t="n">
-        <v>0.323</v>
+        <v>0.328</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="J31" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K31" t="n">
         <v>0.43</v>
       </c>
       <c r="L31" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M31" t="n">
         <v>18.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O31" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="P31" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.739</v>
+        <v>0.737</v>
       </c>
       <c r="R31" t="n">
         <v>10.7</v>
@@ -5992,7 +6059,7 @@
         <v>32.7</v>
       </c>
       <c r="T31" t="n">
-        <v>43.5</v>
+        <v>43.4</v>
       </c>
       <c r="U31" t="n">
         <v>21.8</v>
@@ -6001,25 +6068,25 @@
         <v>15.6</v>
       </c>
       <c r="W31" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X31" t="n">
         <v>4.7</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z31" t="n">
         <v>20.7</v>
       </c>
       <c r="AA31" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB31" t="n">
         <v>91.7</v>
       </c>
       <c r="AC31" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="AD31" t="n">
         <v>25</v>
@@ -6040,7 +6107,7 @@
         <v>27</v>
       </c>
       <c r="AJ31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK31" t="n">
         <v>29</v>
@@ -6055,7 +6122,7 @@
         <v>19</v>
       </c>
       <c r="AO31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP31" t="n">
         <v>25</v>
@@ -6088,16 +6155,16 @@
         <v>10</v>
       </c>
       <c r="AZ31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB31" t="n">
         <v>30</v>
       </c>
       <c r="BC31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-12-2012-13</t>
+          <t>2013-03-12</t>
         </is>
       </c>
     </row>
